--- a/agile/sprint2.xlsx
+++ b/agile/sprint2.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Google Drive\Git\fanorona12\agile\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="sprint2_backlog" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>id</t>
   </si>
@@ -92,6 +97,9 @@
   </si>
   <si>
     <t>projection</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
 </sst>
 </file>
@@ -629,6 +637,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -740,11 +751,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="74490240"/>
-        <c:axId val="74476160"/>
+        <c:axId val="-1433156528"/>
+        <c:axId val="-1433160880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="74490240"/>
+        <c:axId val="-1433156528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -773,12 +784,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74476160"/>
+        <c:crossAx val="-1433160880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="74476160"/>
+        <c:axId val="-1433160880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -813,7 +824,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74490240"/>
+        <c:crossAx val="-1433156528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -913,7 +924,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -948,7 +959,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1160,7 +1171,7 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1211,6 +1222,12 @@
       <c r="C2">
         <v>120</v>
       </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2">
+        <v>120</v>
+      </c>
       <c r="I2">
         <v>0</v>
       </c>
@@ -1244,6 +1261,12 @@
       <c r="C3">
         <v>30</v>
       </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
       <c r="J3">
         <v>0</v>
       </c>
@@ -1252,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L9" si="0">$C$17-K3</f>
+        <f t="shared" ref="L3:L8" si="0">$C$17-K3</f>
         <v>725</v>
       </c>
       <c r="O3">
@@ -1276,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K9" si="1">K3+J4</f>
+        <f t="shared" ref="K4:K8" si="1">K3+J4</f>
         <v>0</v>
       </c>
       <c r="L4">
@@ -1393,6 +1416,12 @@
       <c r="C10">
         <v>20</v>
       </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1404,6 +1433,12 @@
       <c r="C11">
         <v>30</v>
       </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1415,6 +1450,12 @@
       <c r="C12">
         <v>60</v>
       </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1426,6 +1467,12 @@
       <c r="C13">
         <v>45</v>
       </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13">
+        <v>45</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1437,6 +1484,12 @@
       <c r="C14">
         <v>45</v>
       </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14">
+        <v>45</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -1446,6 +1499,12 @@
         <v>19</v>
       </c>
       <c r="C15">
+        <v>120</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15">
         <v>120</v>
       </c>
     </row>

--- a/agile/sprint2.xlsx
+++ b/agile/sprint2.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Google Drive\Git\fanorona12\agile\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="sprint2_backlog" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>id</t>
   </si>
@@ -99,7 +94,7 @@
     <t>projection</t>
   </si>
   <si>
-    <t>M</t>
+    <t>R</t>
   </si>
 </sst>
 </file>
@@ -637,9 +632,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -751,11 +743,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1433156528"/>
-        <c:axId val="-1433160880"/>
+        <c:axId val="95866816"/>
+        <c:axId val="95867392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1433156528"/>
+        <c:axId val="95866816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -784,12 +776,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1433160880"/>
+        <c:crossAx val="95867392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1433160880"/>
+        <c:axId val="95867392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -824,7 +816,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1433156528"/>
+        <c:crossAx val="95866816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -924,7 +916,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -959,7 +951,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1171,7 +1163,7 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1222,12 +1214,6 @@
       <c r="C2">
         <v>120</v>
       </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2">
-        <v>120</v>
-      </c>
       <c r="I2">
         <v>0</v>
       </c>
@@ -1261,12 +1247,6 @@
       <c r="C3">
         <v>30</v>
       </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3">
-        <v>20</v>
-      </c>
       <c r="J3">
         <v>0</v>
       </c>
@@ -1361,6 +1341,15 @@
       <c r="C7">
         <v>60</v>
       </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7">
+        <v>180</v>
+      </c>
       <c r="J7">
         <v>0</v>
       </c>
@@ -1416,12 +1405,6 @@
       <c r="C10">
         <v>20</v>
       </c>
-      <c r="E10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10">
-        <v>20</v>
-      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1433,12 +1416,6 @@
       <c r="C11">
         <v>30</v>
       </c>
-      <c r="E11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11">
-        <v>20</v>
-      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1450,12 +1427,6 @@
       <c r="C12">
         <v>60</v>
       </c>
-      <c r="E12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12">
-        <v>30</v>
-      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1467,12 +1438,6 @@
       <c r="C13">
         <v>45</v>
       </c>
-      <c r="E13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13">
-        <v>45</v>
-      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1484,12 +1449,6 @@
       <c r="C14">
         <v>45</v>
       </c>
-      <c r="E14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14">
-        <v>45</v>
-      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -1499,12 +1458,6 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>120</v>
-      </c>
-      <c r="E15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15">
         <v>120</v>
       </c>
     </row>

--- a/agile/sprint2.xlsx
+++ b/agile/sprint2.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Google Drive\Git\fanorona12\agile\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="sprint2_backlog" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>id</t>
   </si>
@@ -95,6 +100,9 @@
   </si>
   <si>
     <t>R</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
 </sst>
 </file>
@@ -632,6 +640,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -743,11 +754,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="95866816"/>
-        <c:axId val="95867392"/>
+        <c:axId val="-1251498912"/>
+        <c:axId val="-1251498368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="95866816"/>
+        <c:axId val="-1251498912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -776,12 +787,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95867392"/>
+        <c:crossAx val="-1251498368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="95867392"/>
+        <c:axId val="-1251498368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -816,7 +827,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95866816"/>
+        <c:crossAx val="-1251498912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -916,7 +927,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -951,7 +962,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1163,7 +1174,7 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1214,6 +1225,15 @@
       <c r="C2">
         <v>120</v>
       </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2">
+        <v>120</v>
+      </c>
       <c r="I2">
         <v>0</v>
       </c>
@@ -1247,6 +1267,15 @@
       <c r="C3">
         <v>30</v>
       </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
       <c r="J3">
         <v>0</v>
       </c>
@@ -1405,6 +1434,15 @@
       <c r="C10">
         <v>20</v>
       </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1416,6 +1454,15 @@
       <c r="C11">
         <v>30</v>
       </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1427,6 +1474,15 @@
       <c r="C12">
         <v>60</v>
       </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12">
+        <v>60</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1438,6 +1494,15 @@
       <c r="C13">
         <v>45</v>
       </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13">
+        <v>45</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1449,6 +1514,15 @@
       <c r="C14">
         <v>45</v>
       </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14">
+        <v>45</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -1458,6 +1532,15 @@
         <v>19</v>
       </c>
       <c r="C15">
+        <v>120</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15">
         <v>120</v>
       </c>
     </row>

--- a/agile/sprint2.xlsx
+++ b/agile/sprint2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Google Drive\Git\fanorona12\agile\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="sprint2_backlog" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -746,6 +741,54 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Actual</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>sprint2_backlog!$I$2:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>sprint2_backlog!$L$2:$L$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>725</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>195</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -754,11 +797,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1251498912"/>
-        <c:axId val="-1251498368"/>
+        <c:axId val="108172800"/>
+        <c:axId val="108174720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1251498912"/>
+        <c:axId val="108172800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -787,12 +830,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1251498368"/>
+        <c:crossAx val="108174720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1251498368"/>
+        <c:axId val="108174720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -827,7 +870,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1251498912"/>
+        <c:crossAx val="108172800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -927,7 +970,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -962,7 +1005,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1171,10 +1214,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1276,16 +1319,19 @@
       <c r="F3">
         <v>20</v>
       </c>
+      <c r="I3">
+        <v>7</v>
+      </c>
       <c r="J3">
-        <v>0</v>
+        <v>530</v>
       </c>
       <c r="K3">
         <f>K2+J3</f>
-        <v>0</v>
+        <v>530</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L8" si="0">$C$17-K3</f>
-        <v>725</v>
+        <v>195</v>
       </c>
       <c r="O3">
         <v>7</v>
@@ -1304,17 +1350,6 @@
       <c r="C4">
         <v>30</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <f t="shared" ref="K4:K8" si="1">K3+J4</f>
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="0"/>
-        <v>725</v>
-      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -1326,17 +1361,6 @@
       <c r="C5">
         <v>30</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="0"/>
-        <v>725</v>
-      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1348,17 +1372,6 @@
       <c r="C6">
         <v>30</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="0"/>
-        <v>725</v>
-      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1379,17 +1392,6 @@
       <c r="F7">
         <v>180</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="0"/>
-        <v>725</v>
-      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1401,17 +1403,6 @@
       <c r="C8">
         <v>75</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="0"/>
-        <v>725</v>
-      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -1544,13 +1535,19 @@
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>20</v>
       </c>
       <c r="C17">
         <f>SUM(C2:C15)</f>
         <v>725</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <f>SUMIF(D2:D15,1,C2:C15)</f>
+        <v>530</v>
       </c>
     </row>
   </sheetData>

--- a/agile/sprint2.xlsx
+++ b/agile/sprint2.xlsx
@@ -759,14 +759,17 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>sprint2_backlog!$I$2:$I$3</c:f>
+              <c:f>sprint2_backlog!$I$2:$I$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
@@ -774,14 +777,17 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>sprint2_backlog!$L$2:$L$3</c:f>
+              <c:f>sprint2_backlog!$L$2:$L$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>725</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>605</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>195</c:v>
                 </c:pt>
               </c:numCache>
@@ -797,11 +803,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="108172800"/>
-        <c:axId val="108174720"/>
+        <c:axId val="93371392"/>
+        <c:axId val="93381760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="108172800"/>
+        <c:axId val="93371392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -830,12 +836,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108174720"/>
+        <c:crossAx val="93381760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="108174720"/>
+        <c:axId val="93381760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -870,7 +876,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108172800"/>
+        <c:crossAx val="93371392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1217,7 +1223,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1269,7 +1275,7 @@
         <v>120</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
         <v>27</v>
@@ -1311,7 +1317,7 @@
         <v>30</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
         <v>27</v>
@@ -1320,18 +1326,18 @@
         <v>20</v>
       </c>
       <c r="I3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J3">
-        <v>530</v>
+        <v>120</v>
       </c>
       <c r="K3">
         <f>K2+J3</f>
-        <v>530</v>
+        <v>120</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L8" si="0">$C$17-K3</f>
-        <v>195</v>
+        <f t="shared" ref="L3:L4" si="0">$C$17-K3</f>
+        <v>605</v>
       </c>
       <c r="O3">
         <v>7</v>
@@ -1350,6 +1356,20 @@
       <c r="C4">
         <v>30</v>
       </c>
+      <c r="I4">
+        <v>7</v>
+      </c>
+      <c r="J4">
+        <v>410</v>
+      </c>
+      <c r="K4">
+        <f>K3+J4</f>
+        <v>530</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>195</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -1384,7 +1404,7 @@
         <v>60</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
         <v>26</v>
@@ -1426,7 +1446,7 @@
         <v>20</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
         <v>27</v>
@@ -1446,7 +1466,7 @@
         <v>30</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
         <v>27</v>
@@ -1466,7 +1486,7 @@
         <v>60</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E12" t="s">
         <v>27</v>
@@ -1486,7 +1506,7 @@
         <v>45</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E13" t="s">
         <v>27</v>
@@ -1506,7 +1526,7 @@
         <v>45</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E14" t="s">
         <v>27</v>
@@ -1526,7 +1546,7 @@
         <v>120</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E15" t="s">
         <v>27</v>
@@ -1546,8 +1566,8 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D18">
-        <f>SUMIF(D2:D15,1,C2:C15)</f>
-        <v>530</v>
+        <f>SUMIF(D2:D15,7,C2:C15)</f>
+        <v>410</v>
       </c>
     </row>
   </sheetData>
